--- a/Opt-20.xlsx
+++ b/Opt-20.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -363,1668 +363,4342 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>491.68</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>107.42</v>
+        <v>512.2</v>
       </c>
       <c r="C1">
-        <v>272.47</v>
+        <v>109.8</v>
       </c>
       <c r="D1">
-        <v>56</v>
+        <v>350.87</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="F1">
+        <v>28</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>487.94</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>77.56</v>
+        <v>357.18</v>
       </c>
       <c r="C2">
-        <v>339.8</v>
+        <v>35.76</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>738.75</v>
       </c>
       <c r="E2">
+        <v>93</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>525.49</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>91.94</v>
+        <v>574.22</v>
       </c>
       <c r="C3">
-        <v>136.87</v>
+        <v>58.44</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>426.69</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>448.51</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>65.15</v>
+        <v>700.44</v>
       </c>
       <c r="C4">
-        <v>164.27</v>
+        <v>102.9</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>400.12</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>572.17</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>117.18</v>
+        <v>614.1</v>
       </c>
       <c r="C5">
-        <v>39.36</v>
+        <v>103.73</v>
       </c>
       <c r="D5">
+        <v>242.22</v>
+      </c>
+      <c r="E5">
         <v>52</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="F5">
+        <v>22</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>457.16</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>79.1</v>
+        <v>402.35</v>
       </c>
       <c r="C6">
-        <v>139.89</v>
+        <v>78.35</v>
       </c>
       <c r="D6">
-        <v>118</v>
+        <v>288.76</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>509.19</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>70.92</v>
+        <v>486.53</v>
       </c>
       <c r="C7">
-        <v>23.61</v>
+        <v>84.93</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>193.61</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>553.85</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>87.39</v>
+        <v>479.71</v>
       </c>
       <c r="C8">
-        <v>258.31</v>
+        <v>72.56</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>74.78</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>310.98</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>41.91</v>
+        <v>508.2</v>
       </c>
       <c r="C9">
-        <v>421.9</v>
+        <v>97.21</v>
       </c>
       <c r="D9">
-        <v>104</v>
+        <v>654.96</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>476.8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>63.88</v>
+        <v>566.97</v>
       </c>
       <c r="C10">
-        <v>412.35</v>
+        <v>170.47</v>
       </c>
       <c r="D10">
-        <v>74</v>
+        <v>1109.03</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>104</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>381.59</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>85.97</v>
+        <v>622.37</v>
       </c>
       <c r="C11">
-        <v>168.38</v>
+        <v>184.76</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>1028.36</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>415.06</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>69.19</v>
+        <v>558.93</v>
       </c>
       <c r="C12">
-        <v>526.22</v>
+        <v>136.6</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>1477.89</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>357.11</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>16.08</v>
+        <v>465.76</v>
       </c>
       <c r="C13">
-        <v>728.65</v>
+        <v>77.97</v>
       </c>
       <c r="D13">
-        <v>104</v>
+        <v>171.4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>359.01</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>59.09</v>
+        <v>414.93</v>
       </c>
       <c r="C14">
-        <v>597.25</v>
+        <v>68.09</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>224.17</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>480.8</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>124.17</v>
+        <v>473.53</v>
       </c>
       <c r="C15">
-        <v>413.49</v>
+        <v>65.09</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>638.02</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>514.91</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>85.88</v>
+        <v>501.27</v>
       </c>
       <c r="C16">
-        <v>297.01</v>
+        <v>25.06</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>719.3</v>
       </c>
       <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>301.23</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>45.99</v>
+        <v>479.99</v>
       </c>
       <c r="C17">
-        <v>269.36</v>
+        <v>88.27</v>
       </c>
       <c r="D17">
-        <v>135</v>
+        <v>575.01</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>587.97</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>281.78</v>
+        <v>498.43</v>
       </c>
       <c r="C18">
-        <v>2226.27</v>
+        <v>78.85</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>272.51</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>630.75</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>270.66</v>
+        <v>547.96</v>
       </c>
       <c r="C19">
-        <v>1819.81</v>
+        <v>60.27</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>115.16</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>367.32</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>25.09</v>
+        <v>438.64</v>
       </c>
       <c r="C20">
-        <v>262.86</v>
+        <v>52.46</v>
       </c>
       <c r="D20">
-        <v>111</v>
+        <v>307.87</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>461.08</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>82.73</v>
+        <v>599.77</v>
       </c>
       <c r="C21">
-        <v>392.75</v>
+        <v>123.04</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>298.77</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>442.74</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>59.87</v>
+        <v>516.98</v>
       </c>
       <c r="C22">
-        <v>322.71</v>
+        <v>83.55</v>
       </c>
       <c r="D22">
-        <v>87</v>
+        <v>227.51</v>
       </c>
       <c r="E22">
+        <v>39</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>467.25</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>46.75</v>
+        <v>596.48</v>
       </c>
       <c r="C23">
-        <v>436.58</v>
+        <v>75.64</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>166.61</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>33</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>478.06</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>81.93</v>
+        <v>559.19</v>
       </c>
       <c r="C24">
-        <v>365.06</v>
+        <v>87.38</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>681.59</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>527.91</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>100.79</v>
+        <v>480.69</v>
       </c>
       <c r="C25">
-        <v>1484.4</v>
+        <v>120.43</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>243.1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>355.92</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>62.21</v>
+        <v>559.33</v>
       </c>
       <c r="C26">
-        <v>258.52</v>
+        <v>150.5</v>
       </c>
       <c r="D26">
-        <v>133</v>
+        <v>620.3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>499.25</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>39.39</v>
+        <v>576.12</v>
       </c>
       <c r="C27">
-        <v>457.68</v>
+        <v>109.34</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>254.73</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>37</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>547.69</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>141.57</v>
+        <v>516.25</v>
       </c>
       <c r="C28">
-        <v>613.58</v>
+        <v>115.14</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>696.81</v>
       </c>
       <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>379.25</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>121.55</v>
+        <v>441.59</v>
       </c>
       <c r="C29">
-        <v>185.94</v>
+        <v>92.25</v>
       </c>
       <c r="D29">
-        <v>83</v>
+        <v>258.42</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>480.37</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>39.53</v>
+        <v>700.68</v>
       </c>
       <c r="C30">
-        <v>62.45</v>
+        <v>138.57</v>
       </c>
       <c r="D30">
-        <v>74</v>
+        <v>526.02</v>
       </c>
       <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>554.74</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>70.62</v>
+        <v>599.76</v>
       </c>
       <c r="C31">
-        <v>205</v>
+        <v>207.01</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>858.37</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>536.21</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>70.48</v>
+        <v>621.23</v>
       </c>
       <c r="C32">
-        <v>359.42</v>
+        <v>153.77</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>682.16</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>555.67</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>64.27</v>
+        <v>492.66</v>
       </c>
       <c r="C33">
-        <v>633.34</v>
+        <v>129.72</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>956.37</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>79</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>526.81</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>111.25</v>
+        <v>535.24</v>
       </c>
       <c r="C34">
-        <v>763.73</v>
+        <v>90.31</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>445.09</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>647.93</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>81.08</v>
+        <v>463.19</v>
       </c>
       <c r="C35">
-        <v>206.48</v>
+        <v>94.6</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>444.66</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>528.14</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>105.97</v>
+        <v>708.22</v>
       </c>
       <c r="C36">
-        <v>367.45</v>
+        <v>122.75</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>432.32</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F36">
+        <v>39</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>438.16</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>116.66</v>
+        <v>537.25</v>
       </c>
       <c r="C37">
-        <v>89.6</v>
+        <v>296.2</v>
       </c>
       <c r="D37">
-        <v>83</v>
+        <v>2199.39</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>489.35</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>93.4</v>
+        <v>532.97</v>
       </c>
       <c r="C38">
-        <v>667.44</v>
+        <v>157.78</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>789.67</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="F38">
+        <v>18</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>390.31</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>121.49</v>
+        <v>469.16</v>
       </c>
       <c r="C39">
-        <v>875.74</v>
+        <v>93.48</v>
       </c>
       <c r="D39">
-        <v>42</v>
+        <v>4.42</v>
       </c>
       <c r="E39">
+        <v>103</v>
+      </c>
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>512.56</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>175.41</v>
+        <v>485.62</v>
       </c>
       <c r="C40">
-        <v>1300.8</v>
+        <v>59.62</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>24.2</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>379.15</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>121.51</v>
+        <v>524.76</v>
       </c>
       <c r="C41">
-        <v>125.08</v>
+        <v>119.17</v>
       </c>
       <c r="D41">
-        <v>88</v>
+        <v>573.7</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>357.69</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>113.53</v>
+        <v>552.55</v>
       </c>
       <c r="C42">
-        <v>84.09</v>
+        <v>176.44</v>
       </c>
       <c r="D42">
-        <v>103</v>
+        <v>500.54</v>
       </c>
       <c r="E42">
+        <v>33</v>
+      </c>
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>594.99</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>108.99</v>
+        <v>486.78</v>
       </c>
       <c r="C43">
-        <v>318.71</v>
+        <v>100.46</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>20.43</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>504.15</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>57.58</v>
+        <v>455.52</v>
       </c>
       <c r="C44">
-        <v>2406.29</v>
+        <v>99.73</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>567.7</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>451.82</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>106.12</v>
+        <v>642.28</v>
       </c>
       <c r="C45">
-        <v>585.18</v>
+        <v>190.34</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>759.94</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>403.49</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>48.12</v>
+        <v>577.39</v>
       </c>
       <c r="C46">
-        <v>755.78</v>
+        <v>91.54</v>
       </c>
       <c r="D46">
-        <v>86</v>
+        <v>356.59</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>453.76</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>109.19</v>
+        <v>499.7</v>
       </c>
       <c r="C47">
-        <v>315.89</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>67</v>
+        <v>612.14</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>446.79</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>86.92</v>
+        <v>617.16</v>
       </c>
       <c r="C48">
-        <v>942.42</v>
+        <v>80.51</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>985.21</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="F48">
+        <v>42</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>363.07</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>115.79</v>
+        <v>440.91</v>
       </c>
       <c r="C49">
-        <v>416.84</v>
+        <v>67.48</v>
       </c>
       <c r="D49">
-        <v>61</v>
+        <v>33.3</v>
       </c>
       <c r="E49">
+        <v>64</v>
+      </c>
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>429.25</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>123.82</v>
+        <v>525.02</v>
       </c>
       <c r="C50">
-        <v>185.94</v>
+        <v>114.17</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>249.85</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>483.81</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>136.83</v>
+        <v>497.8</v>
       </c>
       <c r="C51">
-        <v>1344.6</v>
+        <v>49.69</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>131.41</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>367.38</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>84.75</v>
+        <v>456.16</v>
       </c>
       <c r="C52">
-        <v>72.35</v>
+        <v>60.44</v>
       </c>
       <c r="D52">
-        <v>141</v>
+        <v>383.78</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>315.78</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>79.62</v>
+        <v>516.67</v>
       </c>
       <c r="C53">
-        <v>192.14</v>
+        <v>81.28</v>
       </c>
       <c r="D53">
-        <v>142</v>
+        <v>176.27</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>421.02</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>114.84</v>
+        <v>462.16</v>
       </c>
       <c r="C54">
-        <v>941.21</v>
+        <v>134.13</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>1338.25</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>436.94</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>116.4</v>
+        <v>436.63</v>
       </c>
       <c r="C55">
-        <v>89.6</v>
+        <v>100.07</v>
       </c>
       <c r="D55">
-        <v>88</v>
+        <v>658.55</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
       </c>
     </row>
     <row r="56" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>533.45</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>115.76</v>
+        <v>559.1</v>
       </c>
       <c r="C56">
-        <v>890.84</v>
+        <v>71.55</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>58.74</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="F56">
+        <v>15</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>395.8</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>108.85</v>
+        <v>415.4</v>
       </c>
       <c r="C57">
-        <v>120.43</v>
+        <v>41.6</v>
       </c>
       <c r="D57">
-        <v>83</v>
+        <v>801.8</v>
       </c>
       <c r="E57">
+        <v>77</v>
+      </c>
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>510.62</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>151.99</v>
+        <v>389.4</v>
       </c>
       <c r="C58">
-        <v>435.19</v>
+        <v>68.87</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>411.65</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="F58">
+        <v>13</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>331.03</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>112.67</v>
+        <v>490.1</v>
       </c>
       <c r="C59">
-        <v>505.09</v>
+        <v>55.54</v>
       </c>
       <c r="D59">
-        <v>61</v>
+        <v>270.87</v>
       </c>
       <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>365.81</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>41.51</v>
+        <v>434.99</v>
       </c>
       <c r="C60">
-        <v>148.04</v>
+        <v>114.86</v>
       </c>
       <c r="D60">
-        <v>141</v>
+        <v>702.13</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>515.12</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>139.16</v>
+        <v>549.55</v>
       </c>
       <c r="C61">
-        <v>1147.71</v>
+        <v>49.98</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>664.47</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>414.99</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>83.19</v>
+        <v>427.35</v>
       </c>
       <c r="C62">
-        <v>310.62</v>
+        <v>72.26</v>
       </c>
       <c r="D62">
-        <v>71</v>
+        <v>328.38</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
       </c>
     </row>
     <row r="63" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>317.74</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>88.81</v>
+        <v>346.37</v>
       </c>
       <c r="C63">
-        <v>23.23</v>
+        <v>74.6</v>
       </c>
       <c r="D63">
-        <v>125</v>
+        <v>203.74</v>
       </c>
       <c r="E63">
+        <v>111</v>
+      </c>
+      <c r="F63">
         <v>1</v>
       </c>
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>400.98</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>90.04</v>
+        <v>489.63</v>
       </c>
       <c r="C64">
-        <v>201.47</v>
+        <v>106.36</v>
       </c>
       <c r="D64">
-        <v>107</v>
+        <v>236.66</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="F64">
+        <v>19</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>485.91</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>91.08</v>
+        <v>470.72</v>
       </c>
       <c r="C65">
-        <v>702.33</v>
+        <v>99.19</v>
       </c>
       <c r="D65">
-        <v>30</v>
+        <v>412.36</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>510.98</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>163.77</v>
+        <v>451.69</v>
       </c>
       <c r="C66">
-        <v>1596.33</v>
+        <v>79.53</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>307.87</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>389.73</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>96.62</v>
+        <v>340.37</v>
       </c>
       <c r="C67">
-        <v>89.6</v>
+        <v>95.34</v>
       </c>
       <c r="D67">
-        <v>118</v>
+        <v>276.86</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
       </c>
     </row>
     <row r="68" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>373.45</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>94.36</v>
+        <v>585.05</v>
       </c>
       <c r="C68">
-        <v>103.18</v>
+        <v>71.33</v>
       </c>
       <c r="D68">
-        <v>106</v>
+        <v>164.36</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>463.97</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>80.03</v>
+        <v>376.02</v>
       </c>
       <c r="C69">
-        <v>86.55</v>
+        <v>78.91</v>
       </c>
       <c r="D69">
-        <v>103</v>
+        <v>73.2</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>542.57</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>125.85</v>
+        <v>409.45</v>
       </c>
       <c r="C70">
-        <v>737.91</v>
+        <v>176.02</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>1532.15</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>354.99</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>94.57</v>
+        <v>287.01</v>
       </c>
       <c r="C71">
-        <v>187.86</v>
+        <v>56.36</v>
       </c>
       <c r="D71">
-        <v>77</v>
+        <v>221.28</v>
       </c>
       <c r="E71">
+        <v>132</v>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>316.26</v>
+        <v>2</v>
       </c>
       <c r="B72">
-        <v>38.63</v>
+        <v>396.58</v>
       </c>
       <c r="C72">
-        <v>297.71</v>
+        <v>109.51</v>
       </c>
       <c r="D72">
-        <v>103</v>
+        <v>508.21</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="F72">
+        <v>19</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>561.2</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>101.37</v>
+        <v>482.46</v>
       </c>
       <c r="C73">
-        <v>152.42</v>
+        <v>120.66</v>
       </c>
       <c r="D73">
-        <v>47</v>
+        <v>306.53</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
       </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>320.28</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>75.96</v>
+        <v>484.12</v>
       </c>
       <c r="C74">
-        <v>821.31</v>
+        <v>58</v>
       </c>
       <c r="D74">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E74">
+        <v>81</v>
+      </c>
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>416.62</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>116.79</v>
+        <v>595.76</v>
       </c>
       <c r="C75">
-        <v>741.39</v>
+        <v>66.95</v>
       </c>
       <c r="D75">
-        <v>44</v>
+        <v>164.36</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
       </c>
     </row>
     <row r="76" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>423.51</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>48.26</v>
+        <v>490.92</v>
       </c>
       <c r="C76">
-        <v>424.78</v>
+        <v>42.31</v>
       </c>
       <c r="D76">
-        <v>61</v>
+        <v>131.41</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>384.24</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>30.24</v>
+        <v>496.36</v>
       </c>
       <c r="C77">
-        <v>148.04</v>
+        <v>166.06</v>
       </c>
       <c r="D77">
-        <v>125</v>
+        <v>1008.47</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>328.62</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>46.93</v>
+        <v>492.29</v>
       </c>
       <c r="C78">
-        <v>390.33</v>
+        <v>98.57</v>
       </c>
       <c r="D78">
-        <v>91</v>
+        <v>65.63</v>
       </c>
       <c r="E78">
+        <v>60</v>
+      </c>
+      <c r="F78">
         <v>1</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>495.63</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>108.66</v>
+        <v>474.11</v>
       </c>
       <c r="C79">
-        <v>141.83</v>
+        <v>33.1</v>
       </c>
       <c r="D79">
-        <v>59</v>
+        <v>489.79</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>382.89</v>
+        <v>3</v>
       </c>
       <c r="B80">
-        <v>52.69</v>
+        <v>428.15</v>
       </c>
       <c r="C80">
-        <v>383.56</v>
+        <v>101.23</v>
       </c>
       <c r="D80">
-        <v>83</v>
+        <v>658.55</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>385.81</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>86.66</v>
+        <v>494.22</v>
       </c>
       <c r="C81">
-        <v>72.35</v>
+        <v>109.86</v>
       </c>
       <c r="D81">
-        <v>125</v>
+        <v>1476</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>312.61</v>
+        <v>3</v>
       </c>
       <c r="B82">
-        <v>106.19</v>
+        <v>605.9</v>
       </c>
       <c r="C82">
-        <v>473.18</v>
+        <v>62.42</v>
       </c>
       <c r="D82">
-        <v>77</v>
+        <v>117.71</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>419.73</v>
+        <v>3</v>
       </c>
       <c r="B83">
-        <v>113.9</v>
+        <v>568.89</v>
       </c>
       <c r="C83">
-        <v>89.6</v>
+        <v>110.76</v>
       </c>
       <c r="D83">
-        <v>99</v>
+        <v>722.87</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>396.37</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>140.64</v>
+        <v>371.74</v>
       </c>
       <c r="C84">
-        <v>293.41</v>
+        <v>65.09</v>
       </c>
       <c r="D84">
-        <v>54</v>
+        <v>401.05</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
       </c>
     </row>
     <row r="85" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>298.91</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>63.21</v>
+        <v>495.31</v>
       </c>
       <c r="C85">
-        <v>89.04</v>
+        <v>86.75</v>
       </c>
       <c r="D85">
-        <v>148</v>
+        <v>332.13</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>476.63</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <v>153.2</v>
+        <v>418.77</v>
       </c>
       <c r="C86">
-        <v>1077.05</v>
+        <v>73.43</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>235.84</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
       </c>
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>378.48</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>86.85</v>
+        <v>449</v>
       </c>
       <c r="C87">
-        <v>801.28</v>
+        <v>118.36</v>
       </c>
       <c r="D87">
-        <v>71</v>
+        <v>98.99</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>360.42</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>73.63</v>
+        <v>590.17</v>
       </c>
       <c r="C88">
-        <v>202.1</v>
+        <v>114.99</v>
       </c>
       <c r="D88">
-        <v>103</v>
+        <v>301.93</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
       </c>
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>493.77</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>87.63</v>
+        <v>554.19</v>
       </c>
       <c r="C89">
-        <v>1015.86</v>
+        <v>81.61</v>
       </c>
       <c r="D89">
-        <v>41</v>
+        <v>313.28</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
       </c>
     </row>
     <row r="90" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>361.33</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>34.18</v>
+        <v>494.5</v>
       </c>
       <c r="C90">
-        <v>238.24</v>
+        <v>91.35</v>
       </c>
       <c r="D90">
-        <v>91</v>
+        <v>578.7</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
       </c>
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>319.9</v>
+        <v>3</v>
       </c>
       <c r="B91">
-        <v>84.07</v>
+        <v>446.82</v>
       </c>
       <c r="C91">
-        <v>189.74</v>
+        <v>88.37</v>
       </c>
       <c r="D91">
-        <v>129</v>
+        <v>111.33</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
       </c>
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>514.71</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>93.22</v>
+        <v>553.63</v>
       </c>
       <c r="C92">
-        <v>216.53</v>
+        <v>73.93</v>
       </c>
       <c r="D92">
-        <v>53</v>
+        <v>391.09</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="F92">
+        <v>19</v>
       </c>
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>401.21</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>69.37</v>
+        <v>567.79</v>
       </c>
       <c r="C93">
-        <v>167.36</v>
+        <v>191</v>
       </c>
       <c r="D93">
-        <v>103</v>
+        <v>1259.5</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
       </c>
     </row>
     <row r="94" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>565.41</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>103.92</v>
+        <v>534.82</v>
       </c>
       <c r="C94">
-        <v>180.83</v>
+        <v>74.28</v>
       </c>
       <c r="D94">
-        <v>30</v>
+        <v>55.71</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
       </c>
     </row>
     <row r="95" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>311.38</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>82.26</v>
+        <v>446.11</v>
       </c>
       <c r="C95">
-        <v>821.31</v>
+        <v>69.51</v>
       </c>
       <c r="D95">
-        <v>97</v>
+        <v>131.96</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="F95">
+        <v>9</v>
       </c>
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>372.03</v>
+        <v>3</v>
       </c>
       <c r="B96">
-        <v>39.37</v>
+        <v>697.46</v>
       </c>
       <c r="C96">
-        <v>905.86</v>
+        <v>220.72</v>
       </c>
       <c r="D96">
-        <v>73</v>
+        <v>1238.17</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
       </c>
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>524.45</v>
+        <v>4</v>
       </c>
       <c r="B97">
-        <v>95.39</v>
+        <v>468.49</v>
       </c>
       <c r="C97">
-        <v>70.96</v>
+        <v>43.18</v>
       </c>
       <c r="D97">
-        <v>54</v>
+        <v>131.41</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
       </c>
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>306.78</v>
+        <v>4</v>
       </c>
       <c r="B98">
-        <v>79.01</v>
+        <v>481.67</v>
       </c>
       <c r="C98">
-        <v>665.31</v>
+        <v>39.25</v>
       </c>
       <c r="D98">
-        <v>109</v>
+        <v>120.93</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>471.48</v>
+      </c>
+      <c r="C99">
+        <v>54.22</v>
+      </c>
+      <c r="D99">
+        <v>59.66</v>
+      </c>
+      <c r="E99">
+        <v>101</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>370.45</v>
+      </c>
+      <c r="C100">
+        <v>48.74</v>
+      </c>
+      <c r="D100">
+        <v>120.93</v>
+      </c>
+      <c r="E100">
+        <v>74</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>487.26</v>
+      </c>
+      <c r="C101">
+        <v>57.34</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>73</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>418.81</v>
+      </c>
+      <c r="C102">
+        <v>36.35</v>
+      </c>
+      <c r="D102">
+        <v>361.33</v>
+      </c>
+      <c r="E102">
+        <v>101</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>521.42</v>
+      </c>
+      <c r="C103">
+        <v>144.66</v>
+      </c>
+      <c r="D103">
+        <v>344.14</v>
+      </c>
+      <c r="E103">
+        <v>50</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>387.15</v>
+      </c>
+      <c r="C104">
+        <v>70.06</v>
+      </c>
+      <c r="D104">
+        <v>38.78</v>
+      </c>
+      <c r="E104">
+        <v>117</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>679.51</v>
+      </c>
+      <c r="C105">
+        <v>142.54</v>
+      </c>
+      <c r="D105">
+        <v>652.59</v>
+      </c>
+      <c r="E105">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>348.62</v>
+      </c>
+      <c r="C106">
+        <v>73.89</v>
+      </c>
+      <c r="D106">
+        <v>609.92</v>
+      </c>
+      <c r="E106">
+        <v>110</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>544.04</v>
+      </c>
+      <c r="C107">
+        <v>77.98</v>
+      </c>
+      <c r="D107">
+        <v>139.26</v>
+      </c>
+      <c r="E107">
+        <v>54</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>479.88</v>
+      </c>
+      <c r="C108">
+        <v>71.75</v>
+      </c>
+      <c r="D108">
+        <v>118.8</v>
+      </c>
+      <c r="E108">
+        <v>92</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>479.7</v>
+      </c>
+      <c r="C109">
+        <v>108.32</v>
+      </c>
+      <c r="D109">
+        <v>665.8</v>
+      </c>
+      <c r="E109">
+        <v>65</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>344.84</v>
+      </c>
+      <c r="C110">
+        <v>71.13</v>
+      </c>
+      <c r="D110">
+        <v>243.2</v>
+      </c>
+      <c r="E110">
+        <v>122</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>444.78</v>
+      </c>
+      <c r="C111">
+        <v>25.54</v>
+      </c>
+      <c r="D111">
+        <v>32.56</v>
+      </c>
+      <c r="E111">
+        <v>97</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>545.2</v>
+      </c>
+      <c r="C112">
+        <v>46.54</v>
+      </c>
+      <c r="D112">
+        <v>23.21</v>
+      </c>
+      <c r="E112">
+        <v>62</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>521.67</v>
+      </c>
+      <c r="C113">
+        <v>69.36</v>
+      </c>
+      <c r="D113">
+        <v>630.98</v>
+      </c>
+      <c r="E113">
+        <v>38</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>694.49</v>
+      </c>
+      <c r="C114">
+        <v>107.35</v>
+      </c>
+      <c r="D114">
+        <v>463.52</v>
+      </c>
+      <c r="E114">
+        <v>17</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>434.96</v>
+      </c>
+      <c r="C115">
+        <v>41</v>
+      </c>
+      <c r="D115">
+        <v>156.73</v>
+      </c>
+      <c r="E115">
+        <v>52</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>519.82</v>
+      </c>
+      <c r="C116">
+        <v>57.49</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>47</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>595.23</v>
+      </c>
+      <c r="C117">
+        <v>91.2</v>
+      </c>
+      <c r="D117">
+        <v>319.76</v>
+      </c>
+      <c r="E117">
+        <v>29</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>447.1</v>
+      </c>
+      <c r="C118">
+        <v>100.12</v>
+      </c>
+      <c r="D118">
+        <v>142.73</v>
+      </c>
+      <c r="E118">
+        <v>62</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>557.02</v>
+      </c>
+      <c r="C119">
+        <v>81.41</v>
+      </c>
+      <c r="D119">
+        <v>840.86</v>
+      </c>
+      <c r="E119">
+        <v>33</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>564.83</v>
+      </c>
+      <c r="C120">
+        <v>107.04</v>
+      </c>
+      <c r="D120">
+        <v>490.87</v>
+      </c>
+      <c r="E120">
+        <v>37</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>516.81</v>
+      </c>
+      <c r="C121">
+        <v>96.98</v>
+      </c>
+      <c r="D121">
+        <v>507.6</v>
+      </c>
+      <c r="E121">
+        <v>48</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>394.62</v>
+      </c>
+      <c r="C122">
+        <v>68.95</v>
+      </c>
+      <c r="D122">
+        <v>44.36</v>
+      </c>
+      <c r="E122">
+        <v>69</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>413.06</v>
+      </c>
+      <c r="C123">
+        <v>40.13</v>
+      </c>
+      <c r="D123">
+        <v>48.18</v>
+      </c>
+      <c r="E123">
+        <v>105</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>571.77</v>
+      </c>
+      <c r="C124">
+        <v>97.77</v>
+      </c>
+      <c r="D124">
+        <v>464.01</v>
+      </c>
+      <c r="E124">
+        <v>47</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>375.34</v>
+      </c>
+      <c r="C125">
+        <v>47.62</v>
+      </c>
+      <c r="D125">
+        <v>261.4</v>
+      </c>
+      <c r="E125">
+        <v>79</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>651.94</v>
+      </c>
+      <c r="C126">
+        <v>105.95</v>
+      </c>
+      <c r="D126">
+        <v>130.06</v>
+      </c>
+      <c r="E126">
+        <v>24</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>617.37</v>
+      </c>
+      <c r="C127">
+        <v>105.45</v>
+      </c>
+      <c r="D127">
+        <v>685.5</v>
+      </c>
+      <c r="E127">
+        <v>33</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>492.7</v>
+      </c>
+      <c r="C128">
+        <v>93.36</v>
+      </c>
+      <c r="D128">
+        <v>144.62</v>
+      </c>
+      <c r="E128">
+        <v>77</v>
+      </c>
+      <c r="F128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>458.54</v>
+      </c>
+      <c r="C129">
+        <v>68.02</v>
+      </c>
+      <c r="D129">
+        <v>129.64</v>
+      </c>
+      <c r="E129">
+        <v>81</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>403.43</v>
+      </c>
+      <c r="C130">
+        <v>31.82</v>
+      </c>
+      <c r="D130">
+        <v>279.16</v>
+      </c>
+      <c r="E130">
+        <v>95</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>374.62</v>
+      </c>
+      <c r="C131">
+        <v>55.28</v>
+      </c>
+      <c r="D131">
+        <v>78.34</v>
+      </c>
+      <c r="E131">
+        <v>123</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>404.87</v>
+      </c>
+      <c r="C132">
+        <v>55.92</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>117</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>389.25</v>
+      </c>
+      <c r="C133">
+        <v>34.66</v>
+      </c>
+      <c r="D133">
+        <v>82.17</v>
+      </c>
+      <c r="E133">
+        <v>113</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>643.49</v>
+      </c>
+      <c r="C134">
+        <v>98.16</v>
+      </c>
+      <c r="D134">
+        <v>308.13</v>
+      </c>
+      <c r="E134">
+        <v>33</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>414.54</v>
+      </c>
+      <c r="C135">
+        <v>78.89</v>
+      </c>
+      <c r="D135">
+        <v>146.17</v>
+      </c>
+      <c r="E135">
+        <v>94</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>339.29</v>
+      </c>
+      <c r="C136">
+        <v>54.18</v>
+      </c>
+      <c r="D136">
+        <v>78.34</v>
+      </c>
+      <c r="E136">
+        <v>132</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>492.18</v>
+      </c>
+      <c r="C137">
+        <v>72.19</v>
+      </c>
+      <c r="D137">
+        <v>96.87</v>
+      </c>
+      <c r="E137">
+        <v>89</v>
+      </c>
+      <c r="F137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>356.4</v>
+      </c>
+      <c r="C138">
+        <v>63.95</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>106</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>412.58</v>
+      </c>
+      <c r="C139">
+        <v>176.84</v>
+      </c>
+      <c r="D139">
+        <v>1099.22</v>
+      </c>
+      <c r="E139">
+        <v>84</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>372.29</v>
+      </c>
+      <c r="C140">
+        <v>63.47</v>
+      </c>
+      <c r="D140">
+        <v>523.15</v>
+      </c>
+      <c r="E140">
+        <v>123</v>
+      </c>
+      <c r="F140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>576.65</v>
+      </c>
+      <c r="C141">
+        <v>49.96</v>
+      </c>
+      <c r="D141">
+        <v>156.4</v>
+      </c>
+      <c r="E141">
+        <v>24</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>521.39</v>
+      </c>
+      <c r="C142">
+        <v>96.84</v>
+      </c>
+      <c r="D142">
+        <v>517.57</v>
+      </c>
+      <c r="E142">
+        <v>45</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>606.75</v>
+      </c>
+      <c r="C143">
+        <v>231.43</v>
+      </c>
+      <c r="D143">
+        <v>1930.13</v>
+      </c>
+      <c r="E143">
+        <v>17</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>550.95</v>
+      </c>
+      <c r="C144">
+        <v>59.08</v>
+      </c>
+      <c r="D144">
+        <v>14.81</v>
+      </c>
+      <c r="E144">
+        <v>40</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>675.67</v>
+      </c>
+      <c r="C145">
+        <v>217.63</v>
+      </c>
+      <c r="D145">
+        <v>1586.93</v>
+      </c>
+      <c r="E145">
+        <v>17</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>7</v>
+      </c>
+      <c r="B146">
+        <v>396.54</v>
+      </c>
+      <c r="C146">
+        <v>52.87</v>
+      </c>
+      <c r="D146">
+        <v>433.38</v>
+      </c>
+      <c r="E146">
+        <v>95</v>
+      </c>
+      <c r="F146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>501.86</v>
+      </c>
+      <c r="C147">
+        <v>63.63</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>77</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>450.97</v>
+      </c>
+      <c r="C148">
+        <v>93.62</v>
+      </c>
+      <c r="D148">
+        <v>371.38</v>
+      </c>
+      <c r="E148">
+        <v>77</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>371.25</v>
+      </c>
+      <c r="C149">
+        <v>137.87</v>
+      </c>
+      <c r="D149">
+        <v>870.86</v>
+      </c>
+      <c r="E149">
+        <v>112</v>
+      </c>
+      <c r="F149">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>400</v>
+      </c>
+      <c r="C150">
+        <v>66.65</v>
+      </c>
+      <c r="D150">
+        <v>412.53</v>
+      </c>
+      <c r="E150">
+        <v>93</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>463.04</v>
+      </c>
+      <c r="C151">
+        <v>101.26</v>
+      </c>
+      <c r="D151">
+        <v>445.58</v>
+      </c>
+      <c r="E151">
+        <v>75</v>
+      </c>
+      <c r="F151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>540.6</v>
+      </c>
+      <c r="C152">
+        <v>82.71</v>
+      </c>
+      <c r="D152">
+        <v>68.14</v>
+      </c>
+      <c r="E152">
+        <v>65</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>305.68</v>
+      </c>
+      <c r="C153">
+        <v>48.96</v>
+      </c>
+      <c r="D153">
+        <v>45.74</v>
+      </c>
+      <c r="E153">
+        <v>142</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>517.54</v>
+      </c>
+      <c r="C154">
+        <v>61.5</v>
+      </c>
+      <c r="D154">
+        <v>143.94</v>
+      </c>
+      <c r="E154">
+        <v>63</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155">
+        <v>563.88</v>
+      </c>
+      <c r="C155">
+        <v>29.56</v>
+      </c>
+      <c r="D155">
+        <v>8.4</v>
+      </c>
+      <c r="E155">
+        <v>57</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>522.59</v>
+      </c>
+      <c r="C156">
+        <v>121.69</v>
+      </c>
+      <c r="D156">
+        <v>300.73</v>
+      </c>
+      <c r="E156">
+        <v>65</v>
+      </c>
+      <c r="F156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157">
+        <v>339.41</v>
+      </c>
+      <c r="C157">
+        <v>82.01</v>
+      </c>
+      <c r="D157">
+        <v>172.63</v>
+      </c>
+      <c r="E157">
+        <v>129</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158">
+        <v>240.26</v>
+      </c>
+      <c r="C158">
+        <v>25.12</v>
+      </c>
+      <c r="D158">
+        <v>382.57</v>
+      </c>
+      <c r="E158">
+        <v>129</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>8</v>
+      </c>
+      <c r="B159">
+        <v>479.77</v>
+      </c>
+      <c r="C159">
+        <v>80.79</v>
+      </c>
+      <c r="D159">
+        <v>68.14</v>
+      </c>
+      <c r="E159">
+        <v>67</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <v>453.21</v>
+      </c>
+      <c r="C160">
+        <v>76.48</v>
+      </c>
+      <c r="D160">
+        <v>461.87</v>
+      </c>
+      <c r="E160">
+        <v>75</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161">
+        <v>383.98</v>
+      </c>
+      <c r="C161">
+        <v>79.9</v>
+      </c>
+      <c r="D161">
+        <v>386.36</v>
+      </c>
+      <c r="E161">
+        <v>95</v>
+      </c>
+      <c r="F161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>370.79</v>
+      </c>
+      <c r="C162">
+        <v>121.62</v>
+      </c>
+      <c r="D162">
+        <v>627.52</v>
+      </c>
+      <c r="E162">
+        <v>95</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>435.87</v>
+      </c>
+      <c r="C163">
+        <v>83.79</v>
+      </c>
+      <c r="D163">
+        <v>214.73</v>
+      </c>
+      <c r="E163">
+        <v>75</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>378.75</v>
+      </c>
+      <c r="C164">
+        <v>85.6</v>
+      </c>
+      <c r="D164">
+        <v>419.29</v>
+      </c>
+      <c r="E164">
+        <v>95</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>521.54</v>
+      </c>
+      <c r="C165">
+        <v>101.03</v>
+      </c>
+      <c r="D165">
+        <v>305.57</v>
+      </c>
+      <c r="E165">
+        <v>62</v>
+      </c>
+      <c r="F165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>470.92</v>
+      </c>
+      <c r="C166">
+        <v>51.8</v>
+      </c>
+      <c r="D166">
+        <v>282.44</v>
+      </c>
+      <c r="E166">
+        <v>85</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>8</v>
+      </c>
+      <c r="B167">
+        <v>389.4</v>
+      </c>
+      <c r="C167">
+        <v>21.42</v>
+      </c>
+      <c r="D167">
+        <v>279.16</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168">
+        <v>460.54</v>
+      </c>
+      <c r="C168">
+        <v>52.42</v>
+      </c>
+      <c r="D168">
+        <v>601.99</v>
+      </c>
+      <c r="E168">
+        <v>85</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>8</v>
+      </c>
+      <c r="B169">
+        <v>358.6</v>
+      </c>
+      <c r="C169">
+        <v>120.41</v>
+      </c>
+      <c r="D169">
+        <v>582.23</v>
+      </c>
+      <c r="E169">
+        <v>113</v>
+      </c>
+      <c r="F169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>8</v>
+      </c>
+      <c r="B170">
+        <v>551.26</v>
+      </c>
+      <c r="C170">
+        <v>60.1</v>
+      </c>
+      <c r="D170">
+        <v>40.77</v>
+      </c>
+      <c r="E170">
+        <v>66</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>8</v>
+      </c>
+      <c r="B171">
+        <v>539.06</v>
+      </c>
+      <c r="C171">
+        <v>95.48</v>
+      </c>
+      <c r="D171">
+        <v>98.04</v>
+      </c>
+      <c r="E171">
+        <v>40</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>8</v>
+      </c>
+      <c r="B172">
+        <v>439.13</v>
+      </c>
+      <c r="C172">
+        <v>75.86</v>
+      </c>
+      <c r="D172">
+        <v>160.03</v>
+      </c>
+      <c r="E172">
+        <v>95</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="B173">
+        <v>433.4</v>
+      </c>
+      <c r="C173">
+        <v>126.96</v>
+      </c>
+      <c r="D173">
+        <v>384.01</v>
+      </c>
+      <c r="E173">
+        <v>75</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>8</v>
+      </c>
+      <c r="B174">
+        <v>470.36</v>
+      </c>
+      <c r="C174">
+        <v>72.67</v>
+      </c>
+      <c r="D174">
+        <v>616.74</v>
+      </c>
+      <c r="E174">
+        <v>75</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>8</v>
+      </c>
+      <c r="B175">
+        <v>396.65</v>
+      </c>
+      <c r="C175">
+        <v>237.39</v>
+      </c>
+      <c r="D175">
+        <v>1977.94</v>
+      </c>
+      <c r="E175">
+        <v>93</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>8</v>
+      </c>
+      <c r="B176">
+        <v>556.23</v>
+      </c>
+      <c r="C176">
+        <v>82.08</v>
+      </c>
+      <c r="D176">
+        <v>235.96</v>
+      </c>
+      <c r="E176">
+        <v>24</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>425.15</v>
+      </c>
+      <c r="C177">
+        <v>130.31</v>
+      </c>
+      <c r="D177">
+        <v>107.2</v>
+      </c>
+      <c r="E177">
+        <v>95</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>382.24</v>
+      </c>
+      <c r="C178">
+        <v>47.69</v>
+      </c>
+      <c r="D178">
+        <v>215.97</v>
+      </c>
+      <c r="E178">
+        <v>95</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>320.4</v>
+      </c>
+      <c r="C179">
+        <v>58.47</v>
+      </c>
+      <c r="D179">
+        <v>276.4</v>
+      </c>
+      <c r="E179">
+        <v>104</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180">
+        <v>499.35</v>
+      </c>
+      <c r="C180">
+        <v>73.29</v>
+      </c>
+      <c r="D180">
+        <v>40.77</v>
+      </c>
+      <c r="E180">
+        <v>91</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="B181">
+        <v>512.47</v>
+      </c>
+      <c r="C181">
+        <v>45.53</v>
+      </c>
+      <c r="D181">
+        <v>562.48</v>
+      </c>
+      <c r="E181">
+        <v>54</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182">
+        <v>434.71</v>
+      </c>
+      <c r="C182">
+        <v>62.35</v>
+      </c>
+      <c r="D182">
+        <v>641.74</v>
+      </c>
+      <c r="E182">
+        <v>82</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>9</v>
+      </c>
+      <c r="B183">
+        <v>313.23</v>
+      </c>
+      <c r="C183">
+        <v>130.93</v>
+      </c>
+      <c r="D183">
+        <v>1200.94</v>
+      </c>
+      <c r="E183">
+        <v>106</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>9</v>
+      </c>
+      <c r="B184">
+        <v>414.11</v>
+      </c>
+      <c r="C184">
+        <v>86.65</v>
+      </c>
+      <c r="D184">
+        <v>205.8</v>
+      </c>
+      <c r="E184">
+        <v>93</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>9</v>
+      </c>
+      <c r="B185">
+        <v>316.46</v>
+      </c>
+      <c r="C185">
+        <v>87.62</v>
+      </c>
+      <c r="D185">
+        <v>485.31</v>
+      </c>
+      <c r="E185">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>9</v>
+      </c>
+      <c r="B186">
+        <v>523.62</v>
+      </c>
+      <c r="C186">
+        <v>49.78</v>
+      </c>
+      <c r="D186">
+        <v>114.2</v>
+      </c>
+      <c r="E186">
+        <v>87</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>674.72</v>
+      </c>
+      <c r="C187">
+        <v>170.55</v>
+      </c>
+      <c r="D187">
+        <v>1482.6</v>
+      </c>
+      <c r="E187">
+        <v>24</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>9</v>
+      </c>
+      <c r="B188">
+        <v>429.99</v>
+      </c>
+      <c r="C188">
+        <v>25.82</v>
+      </c>
+      <c r="D188">
+        <v>364.62</v>
+      </c>
+      <c r="E188">
+        <v>86</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>646.96</v>
+      </c>
+      <c r="C189">
+        <v>228.42</v>
+      </c>
+      <c r="D189">
+        <v>1449.45</v>
+      </c>
+      <c r="E189">
+        <v>24</v>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>9</v>
+      </c>
+      <c r="B190">
+        <v>455.13</v>
+      </c>
+      <c r="C190">
+        <v>57.43</v>
+      </c>
+      <c r="D190">
+        <v>366.98</v>
+      </c>
+      <c r="E190">
+        <v>85</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>9</v>
+      </c>
+      <c r="B191">
+        <v>270.4</v>
+      </c>
+      <c r="C191">
+        <v>47.02</v>
+      </c>
+      <c r="D191">
+        <v>276.4</v>
+      </c>
+      <c r="E191">
+        <v>123</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>9</v>
+      </c>
+      <c r="B192">
+        <v>384.88</v>
+      </c>
+      <c r="C192">
+        <v>25.92</v>
+      </c>
+      <c r="D192">
+        <v>182.78</v>
+      </c>
+      <c r="E192">
+        <v>129</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>9</v>
+      </c>
+      <c r="B193">
+        <v>605.79</v>
+      </c>
+      <c r="C193">
+        <v>133.13</v>
+      </c>
+      <c r="D193">
+        <v>470.92</v>
+      </c>
+      <c r="E193">
+        <v>45</v>
+      </c>
+      <c r="F193">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>453.53</v>
+      </c>
+      <c r="C194">
+        <v>102.37</v>
+      </c>
+      <c r="D194">
+        <v>133.41</v>
+      </c>
+      <c r="E194">
+        <v>95</v>
+      </c>
+      <c r="F194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>455.81</v>
+      </c>
+      <c r="C195">
+        <v>27.54</v>
+      </c>
+      <c r="D195">
+        <v>165.31</v>
+      </c>
+      <c r="E195">
+        <v>65</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>9</v>
+      </c>
+      <c r="B196">
+        <v>470.81</v>
+      </c>
+      <c r="C196">
+        <v>84.78</v>
+      </c>
+      <c r="D196">
+        <v>421.66</v>
+      </c>
+      <c r="E196">
+        <v>47</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>9</v>
+      </c>
+      <c r="B197">
+        <v>400.48</v>
+      </c>
+      <c r="C197">
+        <v>44.68</v>
+      </c>
+      <c r="D197">
+        <v>237.79</v>
+      </c>
+      <c r="E197">
+        <v>87</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>9</v>
+      </c>
+      <c r="B198">
+        <v>388.59</v>
+      </c>
+      <c r="C198">
+        <v>58.53</v>
+      </c>
+      <c r="D198">
+        <v>94.64</v>
+      </c>
+      <c r="E198">
+        <v>123</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>9</v>
+      </c>
+      <c r="B199">
+        <v>531.73</v>
+      </c>
+      <c r="C199">
+        <v>80.53</v>
+      </c>
+      <c r="D199">
+        <v>186.79</v>
+      </c>
+      <c r="E199">
+        <v>52</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>392.75</v>
+      </c>
+      <c r="C200">
+        <v>62.74</v>
+      </c>
+      <c r="D200">
+        <v>14.81</v>
+      </c>
+      <c r="E200">
+        <v>95</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>10</v>
+      </c>
+      <c r="B201">
+        <v>365.56</v>
+      </c>
+      <c r="C201">
+        <v>77.61</v>
+      </c>
+      <c r="D201">
+        <v>315.74</v>
+      </c>
+      <c r="E201">
+        <v>65</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>629.39</v>
+      </c>
+      <c r="C202">
+        <v>194.06</v>
+      </c>
+      <c r="D202">
+        <v>1297.34</v>
+      </c>
+      <c r="E202">
+        <v>40</v>
+      </c>
+      <c r="F202">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>476.64</v>
+      </c>
+      <c r="C203">
+        <v>76.66</v>
+      </c>
+      <c r="D203">
+        <v>343.33</v>
+      </c>
+      <c r="E203">
+        <v>73</v>
+      </c>
+      <c r="F203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204">
+        <v>481.66</v>
+      </c>
+      <c r="C204">
+        <v>113.98</v>
+      </c>
+      <c r="D204">
+        <v>171.8</v>
+      </c>
+      <c r="E204">
+        <v>68</v>
+      </c>
+      <c r="F204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>10</v>
+      </c>
+      <c r="B205">
+        <v>694.96</v>
+      </c>
+      <c r="C205">
+        <v>208.88</v>
+      </c>
+      <c r="D205">
+        <v>1386.11</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>10</v>
+      </c>
+      <c r="B206">
+        <v>433.72</v>
+      </c>
+      <c r="C206">
+        <v>24.17</v>
+      </c>
+      <c r="D206">
+        <v>297.11</v>
+      </c>
+      <c r="E206">
+        <v>83</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>10</v>
+      </c>
+      <c r="B207">
+        <v>354.08</v>
+      </c>
+      <c r="C207">
+        <v>83.41</v>
+      </c>
+      <c r="D207">
+        <v>591.84</v>
+      </c>
+      <c r="E207">
+        <v>101</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>10</v>
+      </c>
+      <c r="B208">
+        <v>435.18</v>
+      </c>
+      <c r="C208">
+        <v>47.96</v>
+      </c>
+      <c r="D208">
+        <v>421.1</v>
+      </c>
+      <c r="E208">
+        <v>82</v>
+      </c>
+      <c r="F208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>10</v>
+      </c>
+      <c r="B209">
+        <v>525.84</v>
+      </c>
+      <c r="C209">
+        <v>93.03</v>
+      </c>
+      <c r="D209">
+        <v>581.45</v>
+      </c>
+      <c r="E209">
+        <v>45</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>478.79</v>
+      </c>
+      <c r="C210">
+        <v>83.78</v>
+      </c>
+      <c r="D210">
+        <v>252.11</v>
+      </c>
+      <c r="E210">
+        <v>47</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>382.32</v>
+      </c>
+      <c r="C211">
+        <v>37.58</v>
+      </c>
+      <c r="D211">
+        <v>63.19</v>
+      </c>
+      <c r="E211">
+        <v>104</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>354.13</v>
+      </c>
+      <c r="C212">
+        <v>94.26</v>
+      </c>
+      <c r="D212">
+        <v>669.32</v>
+      </c>
+      <c r="E212">
+        <v>82</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>10</v>
+      </c>
+      <c r="B213">
+        <v>425.94</v>
+      </c>
+      <c r="C213">
+        <v>34.01</v>
+      </c>
+      <c r="D213">
+        <v>635.57</v>
+      </c>
+      <c r="E213">
+        <v>62</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>10</v>
+      </c>
+      <c r="B214">
+        <v>464.79</v>
+      </c>
+      <c r="C214">
+        <v>67.85</v>
+      </c>
+      <c r="D214">
+        <v>108.77</v>
+      </c>
+      <c r="E214">
+        <v>91</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>10</v>
+      </c>
+      <c r="B215">
+        <v>426.7</v>
+      </c>
+      <c r="C215">
+        <v>37.52</v>
+      </c>
+      <c r="D215">
+        <v>69.83</v>
+      </c>
+      <c r="E215">
+        <v>92</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>10</v>
+      </c>
+      <c r="B216">
+        <v>442.77</v>
+      </c>
+      <c r="C216">
+        <v>99.18</v>
+      </c>
+      <c r="D216">
+        <v>131.81</v>
+      </c>
+      <c r="E216">
+        <v>82</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>10</v>
+      </c>
+      <c r="B217">
+        <v>495.54</v>
+      </c>
+      <c r="C217">
+        <v>31</v>
+      </c>
+      <c r="D217">
+        <v>596.81</v>
+      </c>
+      <c r="E217">
+        <v>66</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
